--- a/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
@@ -2713,7 +2713,11 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
@@ -2773,21 +2777,13 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -2836,21 +2832,13 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>APPROX 11:00 AM - 11:30 AM START</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -2911,21 +2899,13 @@
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>JACKSON MOBIL, OSHKOSH</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -2986,21 +2966,13 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>5171 JACKSON ST</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -3037,21 +3009,13 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/RQRsPjYWFZF5Lq6y7</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -3131,9 +3095,21 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Optima, Equip, help Jerry in Oshkosh after</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
@@ -3178,13 +3154,21 @@
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>5:30 AM MEET OFFICE</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store, Dhillon only</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3221,13 +3205,21 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>@ Store, Dhillon only</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3276,13 +3268,21 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store, Dhillon only</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3331,13 +3331,21 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION LAKE 5 (MOBIL), COLGATE</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>@ Store, Dhillon only</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3375,11 +3383,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>4522 HWY Q</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3406,11 +3410,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/4Gd7nmyouVsSpUj2A</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
@@ -3449,7 +3449,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
@@ -3487,22 +3491,13 @@
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
@@ -3543,14 +3538,10 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3586,14 +3577,10 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>DHILLON'S STATION LAKE 5 (MOBIL), COLGATE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3630,7 +3617,11 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4522 HWY Q</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
@@ -3669,7 +3660,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/4Gd7nmyouVsSpUj2A</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
@@ -3738,9 +3733,22 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
@@ -3777,8 +3785,16 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
@@ -3817,8 +3833,16 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">

--- a/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
@@ -1585,7 +1585,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>

--- a/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
@@ -614,7 +614,11 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>RED CAMRY SERVICE AT LUTTERS</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -2263,7 +2267,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Red Van available, Equip</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -3425,7 +3429,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Sante Fe available, Equip</t>
+          <t>Red Camry available, Equip</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3746,7 +3750,7 @@
       <c r="K66" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe, Equip</t>
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>

--- a/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,11 +535,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -571,24 +567,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 2,3</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -606,24 +642,52 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>RED CAMRY SERVICE AT LUTTERS</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -641,20 +705,44 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
@@ -663,48 +751,40 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bag 5 </t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -715,43 +795,23 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -761,44 +821,32 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>*SALE INVENTORY</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>PICK #308, WAUKESHA - SUNSET EAST</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1260, WAUWATOSA</t>
+          <t>RED CAMRY SERVICE AT LUTTERS</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>PICK #431, FRANKLIN-S LOVERS LANE RD</t>
-        </is>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
@@ -808,10 +856,14 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">5:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -819,7 +871,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>220 E SUNSET DR</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -827,7 +879,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>SUPER RON'S FOOD CENTER, PULASKI</t>
+          <t>4:45 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -835,7 +887,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1055 NORTH MAYFAIR RD SUITE 100</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -843,7 +895,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>7780 S LOVERS LANE ROAD</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -858,7 +910,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #204, KENOSHA</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -866,7 +918,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jn6VPu5yR4C2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -874,7 +926,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>960 CTY RD B</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -882,7 +934,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/NV3ZZdgjMJXbNG4s7</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -890,7 +942,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vq4QCMAV1rj</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -905,7 +957,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2801 14TH PLACE</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -913,7 +965,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>PICK #308, WAUKESHA - SUNSET EAST</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -921,19 +973,23 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/VjqdAYQoTcRL3bpD6</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1260, WAUWATOSA</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>SET UP ON REG CLOSEST TOWARDS RESTROOMS</t>
+          <t>PICK #431, FRANKLIN-S LOVERS LANE RD</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -948,45 +1004,41 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qpmx5KbNekBXgfTh9</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>220 E SUNSET DR</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SUPER RON'S FOOD CENTER, PULASKI</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>1055 NORTH MAYFAIR RD SUITE 100</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>7780 S LOVERS LANE ROAD</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -997,48 +1049,44 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PIGGLY WIGGLY #204, KENOSHA</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/jn6VPu5yR4C2</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>960 CTY RD B</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/NV3ZZdgjMJXbNG4s7</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/vq4QCMAV1rj</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1047,62 +1095,38 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>2801 14TH PLACE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/VjqdAYQoTcRL3bpD6</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>SET UP ON REG CLOSEST TOWARDS RESTROOMS</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1114,65 +1138,48 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>https://goo.gl/maps/qpmx5KbNekBXgfTh9</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
@@ -1182,65 +1189,49 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Until 10:00</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1251,65 +1242,60 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1323,63 +1309,64 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, ASHIPPUN</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1390,71 +1377,63 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>N649 STATE RD 67</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1465,64 +1444,65 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+White Camry</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1536,63 +1516,63 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Lena</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>DHILLON'S BP, ASHIPPUN</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1601,30 +1581,42 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1633,34 +1625,29 @@
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>N649 STATE RD 67</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1669,30 +1656,42 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1701,26 +1700,22 @@
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>https://goo.gl/maps/ma91pJMETDK2</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1734,36 +1729,40 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t> </t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1772,26 +1771,18 @@
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1804,43 +1795,64 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
           <t>Paul</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1851,27 +1863,59 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>PIGGLY WIGGLY #272, UNION GROVE</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -1881,34 +1925,66 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4400 67TH AVE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1923,41 +1999,41 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ZWbA1C6sND9D64WT7</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -1970,41 +2046,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>PIGGLY WIGGLY #272, UNION GROVE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2015,37 +2075,33 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4400 67TH AVE</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>MARIANO'S #529 +RX, WESTERN SPRINGS</t>
+          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>DHILLON'S STATION CEDARBURG LLC</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>9200 W LOOMIS RD, SUITE 210</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2057,27 +2113,18 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/ZWbA1C6sND9D64WT7</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2085,7 +2132,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>4700 GILBERT AVE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2093,7 +2140,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>W62 N174 WASHINGTON AVE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2101,7 +2148,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2113,26 +2160,18 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>SET UP ON REG #5</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/aredhDF1mHF2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2140,7 +2179,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/i3hEg5MbCYQ2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2148,13 +2187,17 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2164,53 +2207,41 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>MARIANO'S #529 +RX, WESTERN SPRINGS</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>DHILLON'S STATION CEDARBURG LLC</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>9200 W LOOMIS RD, SUITE 210</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2221,58 +2252,51 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Equip</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>4700 GILBERT AVE</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+          <t>W62 N174 WASHINGTON AVE</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2284,12 +2308,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2299,33 +2323,25 @@
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/aredhDF1mHF2</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/i3hEg5MbCYQ2</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>https://maps.app.goo.gl/ain85BzcPhd22Kb39</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2343,12 +2359,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2361,37 +2377,33 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>5:00 AM START WATERTOWN PLANK</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2400,54 +2412,60 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2457,40 +2475,56 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2502,44 +2536,52 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t> </t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, FOND DU LAC - JOHNSON</t>
+          <t>5:00 AM START WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2552,37 +2594,43 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, FOND DU LAC-PROSPECT</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2590,7 +2638,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>919 E JOHNSON ST</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2603,49 +2651,37 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2697, WEST ALLIS - LIFO</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>330 PROSPECT AVE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/K1uY65NKN1wdvR36A</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2657,10 +2693,14 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>11111 W GREENFIELD AVE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2668,37 +2708,33 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpFifzkM3ePQqS786</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>DHILLON'S BP, FOND DU LAC - JOHNSON</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2711,7 +2747,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dL7sLochv5e9x5zB7</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2719,52 +2755,38 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DHILLON'S BP, FOND DU LAC-PROSPECT</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>CONDON OIL #175, RANDOLPH</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry, Equip</t>
-        </is>
-      </c>
+          <t>919 E JOHNSON ST</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2776,7 +2798,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>FESTIVAL #2697, WEST ALLIS - LIFO</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2784,19 +2806,19 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>330 PROSPECT AVE</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2808,19 +2830,15 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>154 E KIENOW DR</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>https://goo.gl/maps/K1uY65NKN1wdvR36A</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2833,25 +2851,29 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>11111 W GREENFIELD AVE</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>APPROX 11:00 AM - 11:30 AM START</t>
+          <t>https://goo.gl/maps/fpFifzkM3ePQqS786</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -2863,21 +2885,13 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gLRK63LNv182</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2887,67 +2901,61 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/dL7sLochv5e9x5zB7</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>JACKSON MOBIL, OSHKOSH</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>CONDON OIL #175, RANDOLPH</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+White Camry, Equip</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -2958,14 +2966,10 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2973,25 +2977,45 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5171 JACKSON ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>154 E KIENOW DR</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3001,40 +3025,52 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/RQRsPjYWFZF5Lq6y7</t>
+          <t>APPROX 11:00 AM - 11:30 AM START</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>CONDON OIL #190, WAUPUN</t>
+          <t>https://goo.gl/maps/gLRK63LNv182</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3046,39 +3082,67 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>JACKSON MOBIL, OSHKOSH</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>612 E MAIN ST</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3089,55 +3153,39 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Optima, Equip, help Jerry in Oshkosh after</t>
-        </is>
-      </c>
+          <t>5171 JACKSON ST</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JDEB8kGCMzC2</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>   </t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3148,42 +3196,34 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>@ Store, Dhillon only</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/RQRsPjYWFZF5Lq6y7</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>METRO #885 +RX, WAUWATOSA</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>CONDON OIL #190, WAUPUN</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3199,55 +3239,35 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>@ Store, Dhillon only</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>6950 W STATE ST</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+          <t>612 E MAIN ST</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3262,59 +3282,55 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>@ Store, Dhillon only</t>
+          <t>Optima, Equip, help Jerry in Oshkosh after</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8KffqM17qkx</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/JDEB8kGCMzC2</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>   </t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3325,24 +3341,24 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3354,7 +3370,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>SET UP ON REG BY CASH OFFICE REG #3?</t>
+          <t>METRO #885 +RX, WAUWATOSA</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3376,27 +3392,55 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>@ Store, Dhillon only</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>6950 W STATE ST</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3409,33 +3453,57 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>@ Store, Dhillon only</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Red Camry available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/8KffqM17qkx</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3448,26 +3516,38 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5:30 AM MEET OFFICE</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>@ Store, Dhillon only</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>SET UP ON REG BY CASH OFFICE REG #3?</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3487,37 +3567,25 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
@@ -3535,32 +3603,28 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Red Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3584,19 +3648,19 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION LAKE 5 (MOBIL), COLGATE</t>
+          <t>5:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3617,25 +3681,29 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>4522 HWY Q</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -3660,25 +3728,29 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4Gd7nmyouVsSpUj2A</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3703,17 +3775,21 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>DHILLON'S STATION LAKE 5 (MOBIL), COLGATE</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3737,36 +3813,27 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+          <t>4522 HWY Q</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -3789,34 +3856,25 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>https://goo.gl/maps/4Gd7nmyouVsSpUj2A</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -3837,34 +3895,21 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
@@ -3885,18 +3930,31 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -3924,13 +3982,34 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -3951,13 +4030,34 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -3982,13 +4082,21 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4014,11 +4122,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4045,11 +4149,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>AURORA OUTPATIENT RX #1017, WAUWATOSA</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -4078,7 +4178,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1220 DEWEY AVENUE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4109,7 +4209,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9FX8iZxiZbN2</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4138,7 +4238,11 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1017, WAUWATOSA</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -4164,21 +4268,13 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>1220 DEWEY AVENUE</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -4203,14 +4299,10 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>https://goo.gl/maps/9FX8iZxiZbN2</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4225,6 +4317,107 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
@@ -2573,7 +2573,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2623,16 +2623,8 @@
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2726,7 +2718,11 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -2775,7 +2771,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2830,7 +2826,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2885,7 +2881,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #175, RANDOLPH</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2937,7 +2933,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>CONDON OIL #175, RANDOLPH</t>
+          <t>154 E KIENOW DR</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3001,7 +2997,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>154 E KIENOW DR</t>
+          <t>https://goo.gl/maps/gLRK63LNv182</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3056,7 +3052,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gLRK63LNv182</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3123,7 +3119,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3178,7 +3174,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #190, WAUPUN</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3221,7 +3217,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>CONDON OIL #190, WAUPUN</t>
+          <t>612 E MAIN ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3264,7 +3260,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>612 E MAIN ST</t>
+          <t>https://goo.gl/maps/JDEB8kGCMzC2</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3317,11 +3313,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/JDEB8kGCMzC2</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3375,9 +3367,21 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3428,17 +3432,17 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3489,21 +3493,9 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>

--- a/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
+++ b/03-09-25 to 03-15-25 Milwaukee Schedule.xlsx
@@ -3064,10 +3064,14 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3124,21 +3128,9 @@
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3267,7 +3259,11 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>   </t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
